--- a/data/trans_dic/MCS12_SP_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2519780295068306</v>
+        <v>0.2492654503635892</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2811608967232921</v>
+        <v>0.2802106128460407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2734328520293036</v>
+        <v>0.2755346225422486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2657132515151236</v>
+        <v>0.2710704645955987</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3119638524643073</v>
+        <v>0.3123361897902124</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4056288764136636</v>
+        <v>0.4073253031083569</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3482130780286777</v>
+        <v>0.3492457334028592</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3531380133590282</v>
+        <v>0.3568898982002464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2974471037553915</v>
+        <v>0.2976854259206768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3529600917092717</v>
+        <v>0.3540356832955339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3234702478560967</v>
+        <v>0.3227154528067048</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3258901537396154</v>
+        <v>0.3243461089608583</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3242700761365736</v>
+        <v>0.3265263745128892</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3410223296534605</v>
+        <v>0.3363677749980998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3313809386212671</v>
+        <v>0.3286832509787788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3575490467303212</v>
+        <v>0.3565283945113976</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3737590362642599</v>
+        <v>0.3760519274324243</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.465447156680413</v>
+        <v>0.468614653793726</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4044044501131862</v>
+        <v>0.4077512577607771</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4224667824021393</v>
+        <v>0.4275501700023668</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3452362079435445</v>
+        <v>0.3459564211343524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3961235037560854</v>
+        <v>0.3952305697186593</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3634871465950481</v>
+        <v>0.3616505689297048</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3837000879693501</v>
+        <v>0.3810682237592166</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1601810141927991</v>
+        <v>0.1597529145761093</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1849941579180477</v>
+        <v>0.1861095859170682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1420819276198958</v>
+        <v>0.1405870798078376</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1532580886578768</v>
+        <v>0.1526111346644824</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2253670642520898</v>
+        <v>0.2252919956890523</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2801733176554023</v>
+        <v>0.2752074344564328</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1974674450898012</v>
+        <v>0.1990089846895824</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2230918985581722</v>
+        <v>0.2244617596248313</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2007539427824616</v>
+        <v>0.2004747616954586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2402409571581418</v>
+        <v>0.2410307426546551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1811365907790979</v>
+        <v>0.1788506750913312</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1970925600844484</v>
+        <v>0.1972763156708196</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2086587933611</v>
+        <v>0.2085301078167405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2374489931435326</v>
+        <v>0.23996026117552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1927626826520585</v>
+        <v>0.1935726042607014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2085457924668821</v>
+        <v>0.2057269840814527</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2817652849424812</v>
+        <v>0.2808414413388486</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3381822216542671</v>
+        <v>0.3339734332923897</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2523190914676842</v>
+        <v>0.2543564367351811</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2665584743470965</v>
+        <v>0.2669392596335281</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2356146738424615</v>
+        <v>0.2362415417825589</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2792881258113086</v>
+        <v>0.2806709106711354</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2179112615028582</v>
+        <v>0.2159267927143362</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.231394244722581</v>
+        <v>0.2306860794825137</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1101472087690664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1355830793760697</v>
+        <v>0.1355830793760696</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2063040491979357</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1092446645673079</v>
+        <v>0.1072348158334956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1348498197230698</v>
+        <v>0.1355820600765761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08861542531194395</v>
+        <v>0.08753950648955286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1155185315168238</v>
+        <v>0.1161663158403539</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1800064277116086</v>
+        <v>0.1807024661830444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2246071444923779</v>
+        <v>0.2235810441903526</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1544896599670616</v>
+        <v>0.1543787614454052</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2047872608134358</v>
+        <v>0.2035785388097853</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1487778832972396</v>
+        <v>0.1498220180379579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1861388295190682</v>
+        <v>0.1864763955360365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1267295080154464</v>
+        <v>0.1290592812689783</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1641722718685517</v>
+        <v>0.1652762833008588</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1523955406923237</v>
+        <v>0.1488187337353714</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1867560238170928</v>
+        <v>0.1854885137068752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1339053921942085</v>
+        <v>0.1363492472093027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1594978968430313</v>
+        <v>0.1578804831091574</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2334493781349478</v>
+        <v>0.2299881888576553</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2839441009257082</v>
+        <v>0.2842241030403825</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2112260389263867</v>
+        <v>0.2155456721541594</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.248283109071171</v>
+        <v>0.2491595718723608</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1832159932420261</v>
+        <v>0.1825286156330907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2262481489562062</v>
+        <v>0.2264693047195707</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1631495856379628</v>
+        <v>0.1645427477617082</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1973135894211455</v>
+        <v>0.1966110066169109</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1541125822836329</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2605370593106538</v>
+        <v>0.2605370593106539</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1555336433354884</v>
+        <v>0.1550708960214158</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1497863197730676</v>
+        <v>0.1466784549465453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0775610749686526</v>
+        <v>0.07927699226074084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1937158648326754</v>
+        <v>0.1942121874429764</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1952685258469851</v>
+        <v>0.1966009698172317</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2070003462062373</v>
+        <v>0.2100168817905032</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1679280938379028</v>
+        <v>0.1709558883515653</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2803338045798383</v>
+        <v>0.2761945601911809</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1856288061760824</v>
+        <v>0.1844837588123356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1870835478152589</v>
+        <v>0.1847167341740884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1317691790444831</v>
+        <v>0.1321268049399373</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2411887428992992</v>
+        <v>0.242321418398402</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2278691430582109</v>
+        <v>0.2296867458471403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2219649675131678</v>
+        <v>0.2203720099941779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1351769375463085</v>
+        <v>0.1369351028623698</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2510800173634739</v>
+        <v>0.2495436097010931</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2851200340203303</v>
+        <v>0.2884606097501363</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2911474164199827</v>
+        <v>0.2916314758112191</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2474824721255685</v>
+        <v>0.2482176804652499</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3337621026031748</v>
+        <v>0.3312216453473267</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2443026326718676</v>
+        <v>0.2415488260089723</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2421846981132788</v>
+        <v>0.239018119649688</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1784647154269091</v>
+        <v>0.1778163596364701</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2809294840340434</v>
+        <v>0.2801217691727947</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2677242178946608</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2779121934375656</v>
+        <v>0.2779121934375655</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2238648792893284</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1699979887100632</v>
+        <v>0.1715030218926381</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2083571909007711</v>
+        <v>0.2098583610240265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1768275174578008</v>
+        <v>0.1748185285944298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1825406711529662</v>
+        <v>0.1817112099922763</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2477626385714779</v>
+        <v>0.2480389059741139</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3089471851754847</v>
+        <v>0.3097590642555114</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2535549226796466</v>
+        <v>0.2532481306784222</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2641902165071078</v>
+        <v>0.2648616473428947</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2132437060082016</v>
+        <v>0.2132642553566457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2645549207667148</v>
+        <v>0.2649292618833161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2173990044182928</v>
+        <v>0.2192648829239673</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2290245598280688</v>
+        <v>0.2281225886079704</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1986235198447691</v>
+        <v>0.197982965413765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2381127827325504</v>
+        <v>0.2379537839703662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2024875982169436</v>
+        <v>0.2027540309717755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.210320953196908</v>
+        <v>0.2095231091846413</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2778311836714578</v>
+        <v>0.2789459166215458</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3411619183193731</v>
+        <v>0.3417578965326705</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2850201990067083</v>
+        <v>0.2822905629460234</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2903666205984644</v>
+        <v>0.2916935642787426</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2344002076900866</v>
+        <v>0.2334914745736373</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2878010915943145</v>
+        <v>0.2867609420143968</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.238466837566091</v>
+        <v>0.2397009717491853</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2475989981964251</v>
+        <v>0.2478701148447021</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>147191</v>
+        <v>145606</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>293514</v>
+        <v>292522</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>308431</v>
+        <v>310802</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>131437</v>
+        <v>134087</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>287735</v>
+        <v>288078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>454275</v>
+        <v>456175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>438596</v>
+        <v>439896</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>218595</v>
+        <v>220917</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>448096</v>
+        <v>448455</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>763757</v>
+        <v>766085</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>772304</v>
+        <v>770502</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>362932</v>
+        <v>361213</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>189419</v>
+        <v>190737</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>356005</v>
+        <v>351146</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>373797</v>
+        <v>370754</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>176865</v>
+        <v>176360</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>344730</v>
+        <v>346845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>521267</v>
+        <v>524815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>509372</v>
+        <v>513588</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>261509</v>
+        <v>264656</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>520089</v>
+        <v>521174</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>857157</v>
+        <v>855225</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>867847</v>
+        <v>863462</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>427313</v>
+        <v>424382</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172658</v>
+        <v>172197</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>180753</v>
+        <v>181843</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>129128</v>
+        <v>127769</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>146394</v>
+        <v>145776</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>238334</v>
+        <v>238255</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>306583</v>
+        <v>301149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>198746</v>
+        <v>200298</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>247817</v>
+        <v>249339</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>428696</v>
+        <v>428100</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>497620</v>
+        <v>499255</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>346931</v>
+        <v>342553</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>407202</v>
+        <v>407581</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>224912</v>
+        <v>224773</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>232005</v>
+        <v>234459</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>175188</v>
+        <v>175924</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>199206</v>
+        <v>196513</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>297977</v>
+        <v>297000</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>370060</v>
+        <v>365454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>253953</v>
+        <v>256003</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>296101</v>
+        <v>296524</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>503139</v>
+        <v>504478</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>578499</v>
+        <v>581363</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>417365</v>
+        <v>413565</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>478070</v>
+        <v>476607</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122528</v>
+        <v>120274</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>119358</v>
+        <v>120006</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72998</v>
+        <v>72111</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>120711</v>
+        <v>121387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>178916</v>
+        <v>179607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>196710</v>
+        <v>195811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>119121</v>
+        <v>119035</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>214108</v>
+        <v>212844</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>314745</v>
+        <v>316954</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>327774</v>
+        <v>328368</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>202111</v>
+        <v>205826</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>343195</v>
+        <v>345503</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170926</v>
+        <v>166914</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>165301</v>
+        <v>164179</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>110306</v>
+        <v>112319</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>166667</v>
+        <v>164976</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>232035</v>
+        <v>228594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>248677</v>
+        <v>248922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>162868</v>
+        <v>166198</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>259583</v>
+        <v>260500</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>387600</v>
+        <v>386145</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>398403</v>
+        <v>398792</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>260194</v>
+        <v>262416</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>412476</v>
+        <v>411007</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69555</v>
+        <v>69348</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75346</v>
+        <v>73783</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39300</v>
+        <v>40170</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>187883</v>
+        <v>188364</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66617</v>
+        <v>67072</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>93717</v>
+        <v>95082</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>82234</v>
+        <v>83717</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>253230</v>
+        <v>249491</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>146342</v>
+        <v>145439</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>178807</v>
+        <v>176544</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>131295</v>
+        <v>131651</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>451796</v>
+        <v>453918</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101903</v>
+        <v>102716</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>111653</v>
+        <v>110852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68494</v>
+        <v>69385</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>243520</v>
+        <v>242030</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>97271</v>
+        <v>98411</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>131813</v>
+        <v>132032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>121192</v>
+        <v>121552</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>301493</v>
+        <v>299198</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>192598</v>
+        <v>190427</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>231470</v>
+        <v>228443</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>177822</v>
+        <v>177176</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>526239</v>
+        <v>524726</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>549234</v>
+        <v>554097</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>710320</v>
+        <v>715438</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>595428</v>
+        <v>588663</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>632450</v>
+        <v>629576</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>821325</v>
+        <v>822241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1094514</v>
+        <v>1097390</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>894235</v>
+        <v>893153</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>971868</v>
+        <v>974338</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1395850</v>
+        <v>1395985</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1839151</v>
+        <v>1841753</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1498765</v>
+        <v>1511629</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1636008</v>
+        <v>1629565</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>641719</v>
+        <v>639649</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>811761</v>
+        <v>811219</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>681833</v>
+        <v>682730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>728700</v>
+        <v>725936</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>921002</v>
+        <v>924697</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1208642</v>
+        <v>1210753</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1005207</v>
+        <v>995580</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1068162</v>
+        <v>1073043</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1534336</v>
+        <v>1528388</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2000755</v>
+        <v>1993524</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1644008</v>
+        <v>1652516</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1768692</v>
+        <v>1770629</v>
       </c>
     </row>
     <row r="24">
